--- a/doc/学習プログラム仕様/設計書_社員個人情報管理.xlsx
+++ b/doc/学習プログラム仕様/設計書_社員個人情報管理.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0EFB1B-CFA2-4D92-8902-D3418954FADF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FE4A29-2383-40E7-A2DE-E795C5B3D861}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="3000" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\temp\MyHTML.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"見積検討会"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">画面仕様!$A$1:$AC$261</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">画面仕様!$A$1:$AC$264</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">更新仕様!$A$1:$X$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">表示仕様!$A$1:$X$238</definedName>
   </definedNames>
@@ -41,12 +41,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="365">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -1967,6 +1972,39 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報用 会話スコープコントローラーを設定します。</t>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>会話スコープを開始します。</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>※IDの情報に関しては正しさのチェックを行う。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -4781,13 +4819,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>121726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4857,13 +4895,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>49211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>17461</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4950,13 +4988,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>92074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>60324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5043,13 +5081,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>39687</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5136,13 +5174,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>130174</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>26988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>201613</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5229,13 +5267,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5322,13 +5360,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>122237</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>98424</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5415,13 +5453,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>120648</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>207962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>39685</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5508,13 +5546,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>125411</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>46036</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5601,13 +5639,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>46037</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>106362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5694,13 +5732,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>126998</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47623</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>153988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5787,13 +5825,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>201614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5880,13 +5918,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>225426</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>207963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>146051</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5973,13 +6011,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6066,13 +6104,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>254001</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6159,13 +6197,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>58739</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>187326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>265114</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>155576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6252,13 +6290,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>239714</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>155576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160339</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6345,13 +6383,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241302</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161927</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6438,13 +6476,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214314</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>134939</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6531,13 +6569,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>176214</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6624,13 +6662,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>128589</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6717,13 +6755,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6810,13 +6848,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>23814</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6903,13 +6941,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>119064</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6996,13 +7034,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>157164</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7089,13 +7127,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7488,10 +7526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24717B58-B430-4930-B995-117C7FEEAC96}">
-  <dimension ref="A1:AJ260"/>
+  <dimension ref="A1:AJ263"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S248" sqref="S248"/>
+      <selection activeCell="G207" sqref="G207:G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -9177,7 +9215,7 @@
         <v>358</v>
       </c>
       <c r="R93" s="85" t="s">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="S93" s="85"/>
       <c r="T93" s="85"/>
@@ -9212,7 +9250,7 @@
         <v>358</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S94" s="85"/>
       <c r="T94" s="85"/>
@@ -9246,10 +9284,10 @@
       <c r="Q95" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R95" s="85"/>
-      <c r="S95" s="85" t="s">
-        <v>73</v>
-      </c>
+      <c r="R95" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="S95" s="85"/>
       <c r="T95" s="85"/>
       <c r="U95" s="85"/>
       <c r="V95" s="85"/>
@@ -9283,7 +9321,7 @@
       </c>
       <c r="R96" s="85"/>
       <c r="S96" s="85" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="T96" s="85"/>
       <c r="U96" s="85"/>
@@ -9317,10 +9355,10 @@
         <v>358</v>
       </c>
       <c r="R97" s="85"/>
-      <c r="S97" s="85"/>
-      <c r="T97" s="85" t="s">
-        <v>152</v>
-      </c>
+      <c r="S97" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="T97" s="85"/>
       <c r="U97" s="85"/>
       <c r="V97" s="85"/>
       <c r="W97" s="85"/>
@@ -9351,11 +9389,11 @@
       <c r="Q98" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R98" s="85" t="s">
-        <v>71</v>
-      </c>
+      <c r="R98" s="85"/>
       <c r="S98" s="85"/>
-      <c r="T98" s="85"/>
+      <c r="T98" s="85" t="s">
+        <v>152</v>
+      </c>
       <c r="U98" s="85"/>
       <c r="V98" s="85"/>
       <c r="W98" s="85"/>
@@ -9386,9 +9424,10 @@
       <c r="Q99" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="S99" s="85" t="s">
-        <v>66</v>
-      </c>
+      <c r="R99" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="S99" s="85"/>
       <c r="T99" s="85"/>
       <c r="U99" s="85"/>
       <c r="V99" s="85"/>
@@ -9420,11 +9459,10 @@
       <c r="Q100" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R100" s="85"/>
-      <c r="S100" s="85"/>
-      <c r="T100" s="85" t="s">
-        <v>152</v>
-      </c>
+      <c r="S100" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="T100" s="85"/>
       <c r="U100" s="85"/>
       <c r="V100" s="85"/>
       <c r="W100" s="85"/>
@@ -9455,11 +9493,11 @@
       <c r="Q101" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R101" s="85" t="s">
-        <v>72</v>
-      </c>
+      <c r="R101" s="85"/>
       <c r="S101" s="85"/>
-      <c r="T101" s="85"/>
+      <c r="T101" s="85" t="s">
+        <v>152</v>
+      </c>
       <c r="U101" s="85"/>
       <c r="V101" s="85"/>
       <c r="W101" s="85"/>
@@ -9490,10 +9528,10 @@
       <c r="Q102" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R102" s="85"/>
-      <c r="S102" s="85" t="s">
-        <v>66</v>
-      </c>
+      <c r="R102" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="S102" s="85"/>
       <c r="T102" s="85"/>
       <c r="U102" s="85"/>
       <c r="V102" s="85"/>
@@ -9526,10 +9564,10 @@
         <v>358</v>
       </c>
       <c r="R103" s="85"/>
-      <c r="S103" s="85"/>
-      <c r="T103" s="85" t="s">
-        <v>152</v>
-      </c>
+      <c r="S103" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="T103" s="85"/>
       <c r="U103" s="85"/>
       <c r="V103" s="85"/>
       <c r="W103" s="85"/>
@@ -9561,17 +9599,15 @@
         <v>358</v>
       </c>
       <c r="R104" s="85"/>
-      <c r="S104" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="T104" s="85"/>
+      <c r="S104" s="85"/>
+      <c r="T104" s="85" t="s">
+        <v>152</v>
+      </c>
       <c r="U104" s="85"/>
       <c r="V104" s="85"/>
       <c r="W104" s="85"/>
       <c r="X104" s="85"/>
-      <c r="Y104" s="85" t="s">
-        <v>75</v>
-      </c>
+      <c r="Y104" s="85"/>
       <c r="Z104" s="85"/>
       <c r="AA104" s="85"/>
       <c r="AB104" s="85"/>
@@ -9597,16 +9633,18 @@
       <c r="Q105" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R105" s="85" t="s">
-        <v>347</v>
-      </c>
-      <c r="S105" s="85"/>
+      <c r="R105" s="85"/>
+      <c r="S105" s="85" t="s">
+        <v>74</v>
+      </c>
       <c r="T105" s="85"/>
       <c r="U105" s="85"/>
       <c r="V105" s="85"/>
       <c r="W105" s="85"/>
       <c r="X105" s="85"/>
-      <c r="Y105" s="85"/>
+      <c r="Y105" s="85" t="s">
+        <v>75</v>
+      </c>
       <c r="Z105" s="85"/>
       <c r="AA105" s="85"/>
       <c r="AB105" s="85"/>
@@ -9632,10 +9670,10 @@
       <c r="Q106" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R106" s="85"/>
-      <c r="S106" s="85" t="s">
-        <v>348</v>
-      </c>
+      <c r="R106" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="S106" s="85"/>
       <c r="T106" s="85"/>
       <c r="U106" s="85"/>
       <c r="V106" s="85"/>
@@ -9669,7 +9707,7 @@
       </c>
       <c r="R107" s="85"/>
       <c r="S107" s="85" t="s">
-        <v>66</v>
+        <v>348</v>
       </c>
       <c r="T107" s="85"/>
       <c r="U107" s="85"/>
@@ -9703,10 +9741,10 @@
         <v>358</v>
       </c>
       <c r="R108" s="85"/>
-      <c r="S108" s="85"/>
-      <c r="T108" s="85" t="s">
-        <v>152</v>
-      </c>
+      <c r="S108" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="T108" s="85"/>
       <c r="U108" s="85"/>
       <c r="V108" s="85"/>
       <c r="W108" s="85"/>
@@ -9734,10 +9772,14 @@
       <c r="N109" s="81"/>
       <c r="O109" s="82"/>
       <c r="P109" s="83"/>
-      <c r="Q109" s="84"/>
+      <c r="Q109" s="119" t="s">
+        <v>358</v>
+      </c>
       <c r="R109" s="85"/>
       <c r="S109" s="85"/>
-      <c r="T109" s="85"/>
+      <c r="T109" s="85" t="s">
+        <v>152</v>
+      </c>
       <c r="U109" s="85"/>
       <c r="V109" s="85"/>
       <c r="W109" s="85"/>
@@ -9753,256 +9795,240 @@
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
-      <c r="E110" s="89">
-        <v>2</v>
-      </c>
-      <c r="F110" s="90">
-        <v>21</v>
-      </c>
-      <c r="G110" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="H110" s="92"/>
-      <c r="I110" s="92"/>
-      <c r="J110" s="92"/>
-      <c r="K110" s="92"/>
-      <c r="L110" s="92"/>
-      <c r="M110" s="93"/>
-      <c r="N110" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="O110" s="94"/>
-      <c r="P110" s="95"/>
-      <c r="Q110" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="R110" s="96"/>
-      <c r="S110" s="96"/>
-      <c r="T110" s="96"/>
-      <c r="U110" s="96"/>
-      <c r="V110" s="96"/>
-      <c r="W110" s="96"/>
-      <c r="X110" s="96"/>
-      <c r="Y110" s="96"/>
-      <c r="Z110" s="96"/>
-      <c r="AA110" s="96"/>
-      <c r="AB110" s="96"/>
-      <c r="AC110" s="95"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="78"/>
+      <c r="H110" s="79"/>
+      <c r="I110" s="79"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="79"/>
+      <c r="L110" s="79"/>
+      <c r="M110" s="80"/>
+      <c r="N110" s="81"/>
+      <c r="O110" s="82"/>
+      <c r="P110" s="83"/>
+      <c r="Q110" s="84"/>
+      <c r="R110" s="85"/>
+      <c r="S110" s="85"/>
+      <c r="T110" s="85"/>
+      <c r="U110" s="85"/>
+      <c r="V110" s="85"/>
+      <c r="W110" s="85"/>
+      <c r="X110" s="85"/>
+      <c r="Y110" s="85"/>
+      <c r="Z110" s="85"/>
+      <c r="AA110" s="85"/>
+      <c r="AB110" s="85"/>
+      <c r="AC110" s="83"/>
     </row>
     <row r="111" spans="1:29" ht="13.5" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
-      <c r="E111" s="97"/>
-      <c r="F111" s="98"/>
-      <c r="G111" s="99"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="100"/>
-      <c r="K111" s="100"/>
-      <c r="L111" s="100"/>
-      <c r="M111" s="101"/>
-      <c r="N111" s="102"/>
-      <c r="O111" s="103"/>
-      <c r="P111" s="104"/>
-      <c r="Q111" s="102"/>
-      <c r="R111" s="105" t="s">
+      <c r="E111" s="89">
+        <v>2</v>
+      </c>
+      <c r="F111" s="90">
+        <v>21</v>
+      </c>
+      <c r="G111" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="92"/>
+      <c r="I111" s="92"/>
+      <c r="J111" s="92"/>
+      <c r="K111" s="92"/>
+      <c r="L111" s="92"/>
+      <c r="M111" s="93"/>
+      <c r="N111" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O111" s="94"/>
+      <c r="P111" s="95"/>
+      <c r="Q111" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="R111" s="96"/>
+      <c r="S111" s="96"/>
+      <c r="T111" s="96"/>
+      <c r="U111" s="96"/>
+      <c r="V111" s="96"/>
+      <c r="W111" s="96"/>
+      <c r="X111" s="96"/>
+      <c r="Y111" s="96"/>
+      <c r="Z111" s="96"/>
+      <c r="AA111" s="96"/>
+      <c r="AB111" s="96"/>
+      <c r="AC111" s="95"/>
+    </row>
+    <row r="112" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="97"/>
+      <c r="F112" s="98"/>
+      <c r="G112" s="99"/>
+      <c r="H112" s="100"/>
+      <c r="I112" s="100"/>
+      <c r="J112" s="100"/>
+      <c r="K112" s="100"/>
+      <c r="L112" s="100"/>
+      <c r="M112" s="101"/>
+      <c r="N112" s="102"/>
+      <c r="O112" s="103"/>
+      <c r="P112" s="104"/>
+      <c r="Q112" s="102"/>
+      <c r="R112" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="S111" s="105"/>
-      <c r="T111" s="105"/>
-      <c r="U111" s="105"/>
-      <c r="V111" s="105"/>
-      <c r="W111" s="105"/>
-      <c r="X111" s="105"/>
-      <c r="Y111" s="105"/>
-      <c r="Z111" s="105"/>
-      <c r="AA111" s="105"/>
-      <c r="AB111" s="105"/>
-      <c r="AC111" s="104"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
+      <c r="S112" s="105"/>
+      <c r="T112" s="105"/>
+      <c r="U112" s="105"/>
+      <c r="V112" s="105"/>
+      <c r="W112" s="105"/>
+      <c r="X112" s="105"/>
+      <c r="Y112" s="105"/>
+      <c r="Z112" s="105"/>
+      <c r="AA112" s="105"/>
+      <c r="AB112" s="105"/>
+      <c r="AC112" s="104"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
-      <c r="C117" s="27" t="s">
-        <v>16</v>
-      </c>
+      <c r="C117" s="27"/>
       <c r="D117" s="27"/>
-      <c r="E117" s="29"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="27"/>
       <c r="B118" s="27"/>
-      <c r="C118" s="117" t="s">
-        <v>286</v>
+      <c r="C118" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="D118" s="27"/>
-      <c r="E118" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="E118" s="29"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="27"/>
       <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
+      <c r="C119" s="117" t="s">
+        <v>286</v>
+      </c>
       <c r="D119" s="27"/>
+      <c r="E119" s="28" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
-      <c r="C120" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="C120" s="27"/>
       <c r="D120" s="27"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28" t="s">
-        <v>195</v>
-      </c>
+      <c r="C121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="27"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="27"/>
       <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="29"/>
-    </row>
-    <row r="179" spans="1:29">
-      <c r="A179" s="27"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="88" t="s">
-        <v>76</v>
-      </c>
+      <c r="D124" s="27"/>
+      <c r="E124" s="29"/>
     </row>
     <row r="180" spans="1:29">
       <c r="A180" s="27"/>
       <c r="B180" s="27"/>
       <c r="C180" s="27"/>
       <c r="D180" s="27"/>
-      <c r="E180" s="29"/>
+      <c r="E180" s="88" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="181" spans="1:29">
       <c r="A181" s="27"/>
       <c r="B181" s="27"/>
-      <c r="C181" s="27" t="s">
-        <v>1</v>
-      </c>
+      <c r="C181" s="27"/>
       <c r="D181" s="27"/>
+      <c r="E181" s="29"/>
     </row>
     <row r="182" spans="1:29">
       <c r="A182" s="27"/>
       <c r="B182" s="27"/>
-      <c r="C182" s="27"/>
+      <c r="C182" s="27" t="s">
+        <v>1</v>
+      </c>
       <c r="D182" s="27"/>
-      <c r="E182" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G182" s="32"/>
-      <c r="H182" s="32"/>
-      <c r="I182" s="32"/>
-      <c r="J182" s="32"/>
-      <c r="K182" s="32"/>
-      <c r="L182" s="33"/>
-      <c r="M182" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N182" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="O182" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="P182" s="32"/>
-      <c r="Q182" s="33"/>
-      <c r="R182" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S182" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="T182" s="32"/>
-      <c r="U182" s="32"/>
-      <c r="V182" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="W182" s="32"/>
-      <c r="X182" s="32"/>
-      <c r="Y182" s="32"/>
-      <c r="Z182" s="32"/>
-      <c r="AA182" s="32"/>
-      <c r="AB182" s="32"/>
-      <c r="AC182" s="33"/>
     </row>
     <row r="183" spans="1:29">
       <c r="A183" s="27"/>
       <c r="B183" s="27"/>
       <c r="C183" s="27"/>
       <c r="D183" s="27"/>
-      <c r="E183" s="34">
-        <v>1</v>
-      </c>
-      <c r="F183" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G183" s="36"/>
-      <c r="H183" s="36"/>
-      <c r="I183" s="36"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="36"/>
-      <c r="L183" s="37"/>
-      <c r="M183" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="N183" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="O183" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="P183" s="40"/>
-      <c r="Q183" s="41"/>
-      <c r="R183" s="34">
-        <v>16</v>
-      </c>
-      <c r="S183" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="T183" s="43"/>
-      <c r="U183" s="43"/>
-      <c r="V183" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="W183" s="43"/>
-      <c r="X183" s="43"/>
-      <c r="Y183" s="43"/>
-      <c r="Z183" s="43"/>
-      <c r="AA183" s="43"/>
-      <c r="AB183" s="43"/>
-      <c r="AC183" s="44"/>
+      <c r="E183" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
+      <c r="J183" s="32"/>
+      <c r="K183" s="32"/>
+      <c r="L183" s="33"/>
+      <c r="M183" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N183" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O183" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P183" s="32"/>
+      <c r="Q183" s="33"/>
+      <c r="R183" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S183" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="T183" s="32"/>
+      <c r="U183" s="32"/>
+      <c r="V183" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="W183" s="32"/>
+      <c r="X183" s="32"/>
+      <c r="Y183" s="32"/>
+      <c r="Z183" s="32"/>
+      <c r="AA183" s="32"/>
+      <c r="AB183" s="32"/>
+      <c r="AC183" s="33"/>
     </row>
     <row r="184" spans="1:29">
       <c r="A184" s="27"/>
@@ -10010,10 +10036,10 @@
       <c r="C184" s="27"/>
       <c r="D184" s="27"/>
       <c r="E184" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="35" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="G184" s="36"/>
       <c r="H184" s="36"/>
@@ -10027,13 +10053,13 @@
       <c r="N184" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="O184" s="120" t="s">
-        <v>356</v>
+      <c r="O184" s="39" t="s">
+        <v>218</v>
       </c>
       <c r="P184" s="40"/>
       <c r="Q184" s="41"/>
       <c r="R184" s="34">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="S184" s="42" t="s">
         <v>217</v>
@@ -10041,7 +10067,7 @@
       <c r="T184" s="43"/>
       <c r="U184" s="43"/>
       <c r="V184" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W184" s="43"/>
       <c r="X184" s="43"/>
@@ -10057,10 +10083,10 @@
       <c r="C185" s="27"/>
       <c r="D185" s="27"/>
       <c r="E185" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F185" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G185" s="36"/>
       <c r="H185" s="36"/>
@@ -10088,7 +10114,7 @@
       <c r="T185" s="43"/>
       <c r="U185" s="43"/>
       <c r="V185" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W185" s="43"/>
       <c r="X185" s="43"/>
@@ -10104,10 +10130,10 @@
       <c r="C186" s="27"/>
       <c r="D186" s="27"/>
       <c r="E186" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F186" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G186" s="36"/>
       <c r="H186" s="36"/>
@@ -10118,14 +10144,16 @@
       <c r="M186" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="N186" s="38"/>
-      <c r="O186" s="39" t="s">
-        <v>219</v>
+      <c r="N186" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="O186" s="120" t="s">
+        <v>356</v>
       </c>
       <c r="P186" s="40"/>
       <c r="Q186" s="41"/>
       <c r="R186" s="34">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="S186" s="42" t="s">
         <v>217</v>
@@ -10133,7 +10161,7 @@
       <c r="T186" s="43"/>
       <c r="U186" s="43"/>
       <c r="V186" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W186" s="43"/>
       <c r="X186" s="43"/>
@@ -10149,10 +10177,10 @@
       <c r="C187" s="27"/>
       <c r="D187" s="27"/>
       <c r="E187" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F187" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G187" s="36"/>
       <c r="H187" s="36"/>
@@ -10178,7 +10206,7 @@
       <c r="T187" s="43"/>
       <c r="U187" s="43"/>
       <c r="V187" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W187" s="43"/>
       <c r="X187" s="43"/>
@@ -10194,10 +10222,10 @@
       <c r="C188" s="27"/>
       <c r="D188" s="27"/>
       <c r="E188" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F188" s="35" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="G188" s="36"/>
       <c r="H188" s="36"/>
@@ -10205,23 +10233,25 @@
       <c r="J188" s="36"/>
       <c r="K188" s="36"/>
       <c r="L188" s="37"/>
-      <c r="M188" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="N188" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="O188" s="39"/>
+      <c r="M188" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="N188" s="38"/>
+      <c r="O188" s="39" t="s">
+        <v>219</v>
+      </c>
       <c r="P188" s="40"/>
       <c r="Q188" s="41"/>
-      <c r="R188" s="34"/>
-      <c r="S188" s="107" t="s">
-        <v>220</v>
+      <c r="R188" s="34">
+        <v>80</v>
+      </c>
+      <c r="S188" s="42" t="s">
+        <v>217</v>
       </c>
       <c r="T188" s="43"/>
       <c r="U188" s="43"/>
       <c r="V188" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W188" s="43"/>
       <c r="X188" s="43"/>
@@ -10237,10 +10267,10 @@
       <c r="C189" s="27"/>
       <c r="D189" s="27"/>
       <c r="E189" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F189" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G189" s="36"/>
       <c r="H189" s="36"/>
@@ -10248,25 +10278,23 @@
       <c r="J189" s="36"/>
       <c r="K189" s="36"/>
       <c r="L189" s="37"/>
-      <c r="M189" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="N189" s="38"/>
-      <c r="O189" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="M189" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="N189" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="O189" s="39"/>
       <c r="P189" s="40"/>
       <c r="Q189" s="41"/>
-      <c r="R189" s="34">
-        <v>10</v>
-      </c>
-      <c r="S189" s="42" t="s">
-        <v>217</v>
+      <c r="R189" s="34"/>
+      <c r="S189" s="107" t="s">
+        <v>220</v>
       </c>
       <c r="T189" s="43"/>
       <c r="U189" s="43"/>
       <c r="V189" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W189" s="43"/>
       <c r="X189" s="43"/>
@@ -10282,10 +10310,10 @@
       <c r="C190" s="27"/>
       <c r="D190" s="27"/>
       <c r="E190" s="34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F190" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G190" s="36"/>
       <c r="H190" s="36"/>
@@ -10311,7 +10339,7 @@
       <c r="T190" s="43"/>
       <c r="U190" s="43"/>
       <c r="V190" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W190" s="43"/>
       <c r="X190" s="43"/>
@@ -10327,10 +10355,10 @@
       <c r="C191" s="27"/>
       <c r="D191" s="27"/>
       <c r="E191" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F191" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G191" s="36"/>
       <c r="H191" s="36"/>
@@ -10338,21 +10366,25 @@
       <c r="J191" s="36"/>
       <c r="K191" s="36"/>
       <c r="L191" s="37"/>
-      <c r="M191" s="106" t="s">
-        <v>202</v>
+      <c r="M191" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="N191" s="38"/>
-      <c r="O191" s="39"/>
+      <c r="O191" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="P191" s="40"/>
       <c r="Q191" s="41"/>
-      <c r="R191" s="34"/>
-      <c r="S191" s="107" t="s">
-        <v>220</v>
+      <c r="R191" s="34">
+        <v>10</v>
+      </c>
+      <c r="S191" s="42" t="s">
+        <v>217</v>
       </c>
       <c r="T191" s="43"/>
       <c r="U191" s="43"/>
       <c r="V191" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W191" s="43"/>
       <c r="X191" s="43"/>
@@ -10368,44 +10400,40 @@
       <c r="C192" s="27"/>
       <c r="D192" s="27"/>
       <c r="E192" s="34">
-        <v>10</v>
-      </c>
-      <c r="F192" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G192" s="56"/>
-      <c r="H192" s="56"/>
-      <c r="I192" s="56"/>
-      <c r="J192" s="56"/>
-      <c r="K192" s="56"/>
-      <c r="L192" s="57"/>
-      <c r="M192" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="N192" s="58"/>
-      <c r="O192" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="P192" s="60"/>
-      <c r="Q192" s="61"/>
-      <c r="R192" s="34">
-        <v>10</v>
-      </c>
-      <c r="S192" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="T192" s="51"/>
-      <c r="U192" s="51"/>
-      <c r="V192" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="W192" s="51"/>
-      <c r="X192" s="51"/>
-      <c r="Y192" s="51"/>
-      <c r="Z192" s="51"/>
-      <c r="AA192" s="51"/>
-      <c r="AB192" s="51"/>
-      <c r="AC192" s="63"/>
+        <v>9</v>
+      </c>
+      <c r="F192" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G192" s="36"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
+      <c r="L192" s="37"/>
+      <c r="M192" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="N192" s="38"/>
+      <c r="O192" s="39"/>
+      <c r="P192" s="40"/>
+      <c r="Q192" s="41"/>
+      <c r="R192" s="34"/>
+      <c r="S192" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="T192" s="43"/>
+      <c r="U192" s="43"/>
+      <c r="V192" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="W192" s="43"/>
+      <c r="X192" s="43"/>
+      <c r="Y192" s="43"/>
+      <c r="Z192" s="43"/>
+      <c r="AA192" s="43"/>
+      <c r="AB192" s="43"/>
+      <c r="AC192" s="44"/>
     </row>
     <row r="193" spans="1:29">
       <c r="A193" s="27"/>
@@ -10413,53 +10441,55 @@
       <c r="C193" s="27"/>
       <c r="D193" s="27"/>
       <c r="E193" s="34">
-        <v>11</v>
-      </c>
-      <c r="F193" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G193" s="36"/>
-      <c r="H193" s="36"/>
-      <c r="I193" s="36"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="36"/>
-      <c r="L193" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="F193" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" s="56"/>
+      <c r="H193" s="56"/>
+      <c r="I193" s="56"/>
+      <c r="J193" s="56"/>
+      <c r="K193" s="56"/>
+      <c r="L193" s="57"/>
       <c r="M193" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="N193" s="38"/>
+      <c r="N193" s="58"/>
       <c r="O193" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="P193" s="40"/>
-      <c r="Q193" s="41"/>
+        <v>221</v>
+      </c>
+      <c r="P193" s="60"/>
+      <c r="Q193" s="61"/>
       <c r="R193" s="34">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S193" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="T193" s="43"/>
-      <c r="U193" s="43"/>
-      <c r="V193" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="W193" s="43"/>
-      <c r="X193" s="43"/>
-      <c r="Y193" s="43"/>
-      <c r="Z193" s="43"/>
-      <c r="AA193" s="43"/>
-      <c r="AB193" s="43"/>
-      <c r="AC193" s="44"/>
+      <c r="T193" s="51"/>
+      <c r="U193" s="51"/>
+      <c r="V193" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="W193" s="51"/>
+      <c r="X193" s="51"/>
+      <c r="Y193" s="51"/>
+      <c r="Z193" s="51"/>
+      <c r="AA193" s="51"/>
+      <c r="AB193" s="51"/>
+      <c r="AC193" s="63"/>
     </row>
     <row r="194" spans="1:29">
       <c r="A194" s="27"/>
       <c r="B194" s="27"/>
       <c r="C194" s="27"/>
       <c r="D194" s="27"/>
-      <c r="E194" s="34"/>
+      <c r="E194" s="34">
+        <v>11</v>
+      </c>
       <c r="F194" s="35" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G194" s="36"/>
       <c r="H194" s="36"/>
@@ -10467,17 +10497,25 @@
       <c r="J194" s="36"/>
       <c r="K194" s="36"/>
       <c r="L194" s="37"/>
-      <c r="M194" s="34"/>
+      <c r="M194" s="34" t="s">
+        <v>200</v>
+      </c>
       <c r="N194" s="38"/>
-      <c r="O194" s="39"/>
+      <c r="O194" s="39" t="s">
+        <v>222</v>
+      </c>
       <c r="P194" s="40"/>
       <c r="Q194" s="41"/>
-      <c r="R194" s="34"/>
-      <c r="S194" s="42"/>
+      <c r="R194" s="34">
+        <v>14</v>
+      </c>
+      <c r="S194" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="T194" s="43"/>
       <c r="U194" s="43"/>
       <c r="V194" s="42" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="W194" s="43"/>
       <c r="X194" s="43"/>
@@ -10492,21 +10530,17 @@
       <c r="B195" s="27"/>
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
-      <c r="E195" s="34">
-        <v>12</v>
-      </c>
-      <c r="F195" s="35"/>
-      <c r="G195" s="36" t="s">
-        <v>87</v>
-      </c>
+      <c r="E195" s="34"/>
+      <c r="F195" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G195" s="36"/>
       <c r="H195" s="36"/>
       <c r="I195" s="36"/>
       <c r="J195" s="36"/>
       <c r="K195" s="36"/>
       <c r="L195" s="37"/>
-      <c r="M195" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="M195" s="34"/>
       <c r="N195" s="38"/>
       <c r="O195" s="39"/>
       <c r="P195" s="40"/>
@@ -10516,7 +10550,7 @@
       <c r="T195" s="43"/>
       <c r="U195" s="43"/>
       <c r="V195" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W195" s="43"/>
       <c r="X195" s="43"/>
@@ -10532,11 +10566,11 @@
       <c r="C196" s="27"/>
       <c r="D196" s="27"/>
       <c r="E196" s="34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F196" s="35"/>
       <c r="G196" s="36" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="H196" s="36"/>
       <c r="I196" s="36"/>
@@ -10544,24 +10578,18 @@
       <c r="K196" s="36"/>
       <c r="L196" s="37"/>
       <c r="M196" s="34" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="N196" s="38"/>
-      <c r="O196" s="39" t="s">
-        <v>79</v>
-      </c>
+      <c r="O196" s="39"/>
       <c r="P196" s="40"/>
       <c r="Q196" s="41"/>
-      <c r="R196" s="34">
-        <v>256</v>
-      </c>
-      <c r="S196" s="42" t="s">
-        <v>217</v>
-      </c>
+      <c r="R196" s="34"/>
+      <c r="S196" s="42"/>
       <c r="T196" s="43"/>
       <c r="U196" s="43"/>
       <c r="V196" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W196" s="43"/>
       <c r="X196" s="43"/>
@@ -10576,10 +10604,12 @@
       <c r="B197" s="27"/>
       <c r="C197" s="27"/>
       <c r="D197" s="27"/>
-      <c r="E197" s="34"/>
+      <c r="E197" s="34">
+        <v>13</v>
+      </c>
       <c r="F197" s="35"/>
       <c r="G197" s="36" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H197" s="36"/>
       <c r="I197" s="36"/>
@@ -10587,18 +10617,24 @@
       <c r="K197" s="36"/>
       <c r="L197" s="37"/>
       <c r="M197" s="34" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="N197" s="38"/>
-      <c r="O197" s="39"/>
+      <c r="O197" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="P197" s="40"/>
       <c r="Q197" s="41"/>
-      <c r="R197" s="34"/>
-      <c r="S197" s="42"/>
+      <c r="R197" s="34">
+        <v>256</v>
+      </c>
+      <c r="S197" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="T197" s="43"/>
       <c r="U197" s="43"/>
-      <c r="V197" s="108" t="s">
-        <v>328</v>
+      <c r="V197" s="42" t="s">
+        <v>327</v>
       </c>
       <c r="W197" s="43"/>
       <c r="X197" s="43"/>
@@ -10616,7 +10652,7 @@
       <c r="E198" s="34"/>
       <c r="F198" s="35"/>
       <c r="G198" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H198" s="36"/>
       <c r="I198" s="36"/>
@@ -10651,16 +10687,18 @@
       <c r="C199" s="27"/>
       <c r="D199" s="27"/>
       <c r="E199" s="34"/>
-      <c r="F199" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G199" s="36"/>
+      <c r="F199" s="35"/>
+      <c r="G199" s="36" t="s">
+        <v>234</v>
+      </c>
       <c r="H199" s="36"/>
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
       <c r="K199" s="36"/>
       <c r="L199" s="37"/>
-      <c r="M199" s="34"/>
+      <c r="M199" s="34" t="s">
+        <v>231</v>
+      </c>
       <c r="N199" s="38"/>
       <c r="O199" s="39"/>
       <c r="P199" s="40"/>
@@ -10669,7 +10707,9 @@
       <c r="S199" s="42"/>
       <c r="T199" s="43"/>
       <c r="U199" s="43"/>
-      <c r="V199" s="42"/>
+      <c r="V199" s="108" t="s">
+        <v>328</v>
+      </c>
       <c r="W199" s="43"/>
       <c r="X199" s="43"/>
       <c r="Y199" s="43"/>
@@ -10683,21 +10723,17 @@
       <c r="B200" s="27"/>
       <c r="C200" s="27"/>
       <c r="D200" s="27"/>
-      <c r="E200" s="34">
-        <v>14</v>
-      </c>
-      <c r="F200" s="35"/>
-      <c r="G200" s="36" t="s">
-        <v>89</v>
-      </c>
+      <c r="E200" s="34"/>
+      <c r="F200" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G200" s="36"/>
       <c r="H200" s="36"/>
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
       <c r="K200" s="36"/>
       <c r="L200" s="37"/>
-      <c r="M200" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="M200" s="34"/>
       <c r="N200" s="38"/>
       <c r="O200" s="39"/>
       <c r="P200" s="40"/>
@@ -10706,9 +10742,7 @@
       <c r="S200" s="42"/>
       <c r="T200" s="43"/>
       <c r="U200" s="43"/>
-      <c r="V200" s="42" t="s">
-        <v>329</v>
-      </c>
+      <c r="V200" s="42"/>
       <c r="W200" s="43"/>
       <c r="X200" s="43"/>
       <c r="Y200" s="43"/>
@@ -10723,11 +10757,11 @@
       <c r="C201" s="27"/>
       <c r="D201" s="27"/>
       <c r="E201" s="34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F201" s="35"/>
       <c r="G201" s="36" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H201" s="36"/>
       <c r="I201" s="36"/>
@@ -10735,24 +10769,18 @@
       <c r="K201" s="36"/>
       <c r="L201" s="37"/>
       <c r="M201" s="34" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="N201" s="38"/>
-      <c r="O201" s="39" t="s">
-        <v>224</v>
-      </c>
+      <c r="O201" s="39"/>
       <c r="P201" s="40"/>
       <c r="Q201" s="41"/>
-      <c r="R201" s="34">
-        <v>14</v>
-      </c>
-      <c r="S201" s="42" t="s">
-        <v>217</v>
-      </c>
+      <c r="R201" s="34"/>
+      <c r="S201" s="42"/>
       <c r="T201" s="43"/>
       <c r="U201" s="43"/>
       <c r="V201" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W201" s="43"/>
       <c r="X201" s="43"/>
@@ -10767,10 +10795,12 @@
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
       <c r="D202" s="27"/>
-      <c r="E202" s="34"/>
+      <c r="E202" s="34">
+        <v>15</v>
+      </c>
       <c r="F202" s="35"/>
       <c r="G202" s="36" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="H202" s="36"/>
       <c r="I202" s="36"/>
@@ -10778,18 +10808,24 @@
       <c r="K202" s="36"/>
       <c r="L202" s="37"/>
       <c r="M202" s="34" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="N202" s="38"/>
-      <c r="O202" s="39"/>
+      <c r="O202" s="39" t="s">
+        <v>224</v>
+      </c>
       <c r="P202" s="40"/>
       <c r="Q202" s="41"/>
-      <c r="R202" s="34"/>
-      <c r="S202" s="42"/>
+      <c r="R202" s="34">
+        <v>14</v>
+      </c>
+      <c r="S202" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="T202" s="43"/>
       <c r="U202" s="43"/>
-      <c r="V202" s="108" t="s">
-        <v>328</v>
+      <c r="V202" s="42" t="s">
+        <v>330</v>
       </c>
       <c r="W202" s="43"/>
       <c r="X202" s="43"/>
@@ -10807,7 +10843,7 @@
       <c r="E203" s="34"/>
       <c r="F203" s="35"/>
       <c r="G203" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H203" s="36"/>
       <c r="I203" s="36"/>
@@ -10842,16 +10878,18 @@
       <c r="C204" s="27"/>
       <c r="D204" s="27"/>
       <c r="E204" s="34"/>
-      <c r="F204" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G204" s="36"/>
+      <c r="F204" s="35"/>
+      <c r="G204" s="36" t="s">
+        <v>236</v>
+      </c>
       <c r="H204" s="36"/>
       <c r="I204" s="36"/>
       <c r="J204" s="36"/>
       <c r="K204" s="36"/>
       <c r="L204" s="37"/>
-      <c r="M204" s="34"/>
+      <c r="M204" s="34" t="s">
+        <v>231</v>
+      </c>
       <c r="N204" s="38"/>
       <c r="O204" s="39"/>
       <c r="P204" s="40"/>
@@ -10860,7 +10898,9 @@
       <c r="S204" s="42"/>
       <c r="T204" s="43"/>
       <c r="U204" s="43"/>
-      <c r="V204" s="42"/>
+      <c r="V204" s="108" t="s">
+        <v>328</v>
+      </c>
       <c r="W204" s="43"/>
       <c r="X204" s="43"/>
       <c r="Y204" s="43"/>
@@ -10874,21 +10914,17 @@
       <c r="B205" s="27"/>
       <c r="C205" s="27"/>
       <c r="D205" s="27"/>
-      <c r="E205" s="34">
-        <v>16</v>
-      </c>
-      <c r="F205" s="35"/>
-      <c r="G205" s="36" t="s">
-        <v>93</v>
-      </c>
+      <c r="E205" s="34"/>
+      <c r="F205" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G205" s="36"/>
       <c r="H205" s="36"/>
       <c r="I205" s="36"/>
       <c r="J205" s="36"/>
       <c r="K205" s="36"/>
       <c r="L205" s="37"/>
-      <c r="M205" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="M205" s="34"/>
       <c r="N205" s="38"/>
       <c r="O205" s="39"/>
       <c r="P205" s="40"/>
@@ -10897,9 +10933,7 @@
       <c r="S205" s="42"/>
       <c r="T205" s="43"/>
       <c r="U205" s="43"/>
-      <c r="V205" s="42" t="s">
-        <v>331</v>
-      </c>
+      <c r="V205" s="42"/>
       <c r="W205" s="43"/>
       <c r="X205" s="43"/>
       <c r="Y205" s="43"/>
@@ -10914,11 +10948,11 @@
       <c r="C206" s="27"/>
       <c r="D206" s="27"/>
       <c r="E206" s="34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F206" s="35"/>
       <c r="G206" s="36" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="H206" s="36"/>
       <c r="I206" s="36"/>
@@ -10926,24 +10960,18 @@
       <c r="K206" s="36"/>
       <c r="L206" s="37"/>
       <c r="M206" s="34" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="N206" s="38"/>
-      <c r="O206" s="39" t="s">
-        <v>169</v>
-      </c>
+      <c r="O206" s="39"/>
       <c r="P206" s="40"/>
       <c r="Q206" s="41"/>
-      <c r="R206" s="34">
-        <v>7</v>
-      </c>
-      <c r="S206" s="42" t="s">
-        <v>217</v>
-      </c>
+      <c r="R206" s="34"/>
+      <c r="S206" s="42"/>
       <c r="T206" s="43"/>
       <c r="U206" s="43"/>
       <c r="V206" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W206" s="43"/>
       <c r="X206" s="43"/>
@@ -10959,11 +10987,11 @@
       <c r="C207" s="27"/>
       <c r="D207" s="27"/>
       <c r="E207" s="34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F207" s="35"/>
       <c r="G207" s="36" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="H207" s="36"/>
       <c r="I207" s="36"/>
@@ -10975,12 +11003,12 @@
       </c>
       <c r="N207" s="38"/>
       <c r="O207" s="39" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="P207" s="40"/>
       <c r="Q207" s="41"/>
       <c r="R207" s="34">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="S207" s="42" t="s">
         <v>217</v>
@@ -10988,7 +11016,7 @@
       <c r="T207" s="43"/>
       <c r="U207" s="43"/>
       <c r="V207" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W207" s="43"/>
       <c r="X207" s="43"/>
@@ -11004,11 +11032,11 @@
       <c r="C208" s="27"/>
       <c r="D208" s="27"/>
       <c r="E208" s="34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F208" s="35"/>
       <c r="G208" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H208" s="36"/>
       <c r="I208" s="36"/>
@@ -11049,11 +11077,11 @@
       <c r="C209" s="27"/>
       <c r="D209" s="27"/>
       <c r="E209" s="34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F209" s="35"/>
       <c r="G209" s="36" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="H209" s="36"/>
       <c r="I209" s="36"/>
@@ -11064,7 +11092,9 @@
         <v>200</v>
       </c>
       <c r="N209" s="38"/>
-      <c r="O209" s="39"/>
+      <c r="O209" s="39" t="s">
+        <v>216</v>
+      </c>
       <c r="P209" s="40"/>
       <c r="Q209" s="41"/>
       <c r="R209" s="34">
@@ -11076,7 +11106,7 @@
       <c r="T209" s="43"/>
       <c r="U209" s="43"/>
       <c r="V209" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W209" s="43"/>
       <c r="X209" s="43"/>
@@ -11091,10 +11121,12 @@
       <c r="B210" s="27"/>
       <c r="C210" s="27"/>
       <c r="D210" s="27"/>
-      <c r="E210" s="34"/>
+      <c r="E210" s="34">
+        <v>20</v>
+      </c>
       <c r="F210" s="35"/>
       <c r="G210" s="36" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="H210" s="36"/>
       <c r="I210" s="36"/>
@@ -11102,18 +11134,22 @@
       <c r="K210" s="36"/>
       <c r="L210" s="37"/>
       <c r="M210" s="34" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="N210" s="38"/>
       <c r="O210" s="39"/>
       <c r="P210" s="40"/>
       <c r="Q210" s="41"/>
-      <c r="R210" s="34"/>
-      <c r="S210" s="42"/>
+      <c r="R210" s="34">
+        <v>50</v>
+      </c>
+      <c r="S210" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="T210" s="43"/>
       <c r="U210" s="43"/>
-      <c r="V210" s="108" t="s">
-        <v>328</v>
+      <c r="V210" s="42" t="s">
+        <v>334</v>
       </c>
       <c r="W210" s="43"/>
       <c r="X210" s="43"/>
@@ -11131,7 +11167,7 @@
       <c r="E211" s="34"/>
       <c r="F211" s="35"/>
       <c r="G211" s="36" t="s">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c r="H211" s="36"/>
       <c r="I211" s="36"/>
@@ -11168,7 +11204,7 @@
       <c r="E212" s="34"/>
       <c r="F212" s="35"/>
       <c r="G212" s="36" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="H212" s="36"/>
       <c r="I212" s="36"/>
@@ -11203,16 +11239,18 @@
       <c r="C213" s="27"/>
       <c r="D213" s="27"/>
       <c r="E213" s="34"/>
-      <c r="F213" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="G213" s="36"/>
+      <c r="F213" s="35"/>
+      <c r="G213" s="36" t="s">
+        <v>238</v>
+      </c>
       <c r="H213" s="36"/>
       <c r="I213" s="36"/>
       <c r="J213" s="36"/>
       <c r="K213" s="36"/>
       <c r="L213" s="37"/>
-      <c r="M213" s="34"/>
+      <c r="M213" s="34" t="s">
+        <v>231</v>
+      </c>
       <c r="N213" s="38"/>
       <c r="O213" s="39"/>
       <c r="P213" s="40"/>
@@ -11221,7 +11259,9 @@
       <c r="S213" s="42"/>
       <c r="T213" s="43"/>
       <c r="U213" s="43"/>
-      <c r="V213" s="42"/>
+      <c r="V213" s="108" t="s">
+        <v>328</v>
+      </c>
       <c r="W213" s="43"/>
       <c r="X213" s="43"/>
       <c r="Y213" s="43"/>
@@ -11235,21 +11275,17 @@
       <c r="B214" s="27"/>
       <c r="C214" s="27"/>
       <c r="D214" s="27"/>
-      <c r="E214" s="34">
-        <v>21</v>
-      </c>
-      <c r="F214" s="35"/>
-      <c r="G214" s="36" t="s">
-        <v>97</v>
-      </c>
+      <c r="E214" s="34"/>
+      <c r="F214" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G214" s="36"/>
       <c r="H214" s="36"/>
       <c r="I214" s="36"/>
       <c r="J214" s="36"/>
       <c r="K214" s="36"/>
       <c r="L214" s="37"/>
-      <c r="M214" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="M214" s="34"/>
       <c r="N214" s="38"/>
       <c r="O214" s="39"/>
       <c r="P214" s="40"/>
@@ -11258,9 +11294,7 @@
       <c r="S214" s="42"/>
       <c r="T214" s="43"/>
       <c r="U214" s="43"/>
-      <c r="V214" s="42" t="s">
-        <v>335</v>
-      </c>
+      <c r="V214" s="42"/>
       <c r="W214" s="43"/>
       <c r="X214" s="43"/>
       <c r="Y214" s="43"/>
@@ -11275,11 +11309,11 @@
       <c r="C215" s="27"/>
       <c r="D215" s="27"/>
       <c r="E215" s="34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F215" s="35"/>
       <c r="G215" s="36" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="H215" s="36"/>
       <c r="I215" s="36"/>
@@ -11287,26 +11321,18 @@
       <c r="K215" s="36"/>
       <c r="L215" s="37"/>
       <c r="M215" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="N215" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="O215" s="39" t="s">
-        <v>225</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="N215" s="38"/>
+      <c r="O215" s="39"/>
       <c r="P215" s="40"/>
       <c r="Q215" s="41"/>
-      <c r="R215" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="S215" s="42" t="s">
-        <v>217</v>
-      </c>
+      <c r="R215" s="34"/>
+      <c r="S215" s="42"/>
       <c r="T215" s="43"/>
       <c r="U215" s="43"/>
       <c r="V215" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W215" s="43"/>
       <c r="X215" s="43"/>
@@ -11322,11 +11348,11 @@
       <c r="C216" s="27"/>
       <c r="D216" s="27"/>
       <c r="E216" s="34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F216" s="35"/>
       <c r="G216" s="36" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H216" s="36"/>
       <c r="I216" s="36"/>
@@ -11334,18 +11360,26 @@
       <c r="K216" s="36"/>
       <c r="L216" s="37"/>
       <c r="M216" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N216" s="38"/>
-      <c r="O216" s="39"/>
+        <v>226</v>
+      </c>
+      <c r="N216" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O216" s="39" t="s">
+        <v>225</v>
+      </c>
       <c r="P216" s="40"/>
       <c r="Q216" s="41"/>
-      <c r="R216" s="34"/>
-      <c r="S216" s="42"/>
+      <c r="R216" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="S216" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="T216" s="43"/>
       <c r="U216" s="43"/>
       <c r="V216" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W216" s="43"/>
       <c r="X216" s="43"/>
@@ -11360,10 +11394,12 @@
       <c r="B217" s="27"/>
       <c r="C217" s="27"/>
       <c r="D217" s="27"/>
-      <c r="E217" s="34"/>
+      <c r="E217" s="34">
+        <v>23</v>
+      </c>
       <c r="F217" s="35"/>
       <c r="G217" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H217" s="36"/>
       <c r="I217" s="36"/>
@@ -11371,7 +11407,7 @@
       <c r="K217" s="36"/>
       <c r="L217" s="37"/>
       <c r="M217" s="34" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="N217" s="38"/>
       <c r="O217" s="39"/>
@@ -11381,8 +11417,8 @@
       <c r="S217" s="42"/>
       <c r="T217" s="43"/>
       <c r="U217" s="43"/>
-      <c r="V217" s="108" t="s">
-        <v>328</v>
+      <c r="V217" s="42" t="s">
+        <v>337</v>
       </c>
       <c r="W217" s="43"/>
       <c r="X217" s="43"/>
@@ -11400,7 +11436,7 @@
       <c r="E218" s="34"/>
       <c r="F218" s="35"/>
       <c r="G218" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H218" s="36"/>
       <c r="I218" s="36"/>
@@ -11437,7 +11473,7 @@
       <c r="E219" s="34"/>
       <c r="F219" s="35"/>
       <c r="G219" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H219" s="36"/>
       <c r="I219" s="36"/>
@@ -11474,7 +11510,7 @@
       <c r="E220" s="34"/>
       <c r="F220" s="35"/>
       <c r="G220" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H220" s="36"/>
       <c r="I220" s="36"/>
@@ -11511,7 +11547,7 @@
       <c r="E221" s="34"/>
       <c r="F221" s="35"/>
       <c r="G221" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H221" s="36"/>
       <c r="I221" s="36"/>
@@ -11548,7 +11584,7 @@
       <c r="E222" s="34"/>
       <c r="F222" s="35"/>
       <c r="G222" s="36" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H222" s="36"/>
       <c r="I222" s="36"/>
@@ -11582,37 +11618,29 @@
       <c r="B223" s="27"/>
       <c r="C223" s="27"/>
       <c r="D223" s="27"/>
-      <c r="E223" s="34">
-        <v>24</v>
-      </c>
-      <c r="F223" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G223" s="36"/>
+      <c r="E223" s="34"/>
+      <c r="F223" s="35"/>
+      <c r="G223" s="36" t="s">
+        <v>240</v>
+      </c>
       <c r="H223" s="36"/>
       <c r="I223" s="36"/>
       <c r="J223" s="36"/>
       <c r="K223" s="36"/>
       <c r="L223" s="37"/>
-      <c r="M223" s="121" t="s">
-        <v>357</v>
+      <c r="M223" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="N223" s="38"/>
-      <c r="O223" s="39" t="s">
-        <v>216</v>
-      </c>
+      <c r="O223" s="39"/>
       <c r="P223" s="40"/>
       <c r="Q223" s="41"/>
-      <c r="R223" s="34">
-        <v>200</v>
-      </c>
-      <c r="S223" s="42" t="s">
-        <v>217</v>
-      </c>
+      <c r="R223" s="34"/>
+      <c r="S223" s="42"/>
       <c r="T223" s="43"/>
       <c r="U223" s="43"/>
-      <c r="V223" s="42" t="s">
-        <v>338</v>
+      <c r="V223" s="108" t="s">
+        <v>328</v>
       </c>
       <c r="W223" s="43"/>
       <c r="X223" s="43"/>
@@ -11628,10 +11656,10 @@
       <c r="C224" s="27"/>
       <c r="D224" s="27"/>
       <c r="E224" s="34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F224" s="35" t="s">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="G224" s="36"/>
       <c r="H224" s="36"/>
@@ -11639,19 +11667,25 @@
       <c r="J224" s="36"/>
       <c r="K224" s="36"/>
       <c r="L224" s="37"/>
-      <c r="M224" s="34" t="s">
-        <v>28</v>
+      <c r="M224" s="121" t="s">
+        <v>357</v>
       </c>
       <c r="N224" s="38"/>
-      <c r="O224" s="39"/>
+      <c r="O224" s="39" t="s">
+        <v>216</v>
+      </c>
       <c r="P224" s="40"/>
       <c r="Q224" s="41"/>
-      <c r="R224" s="34"/>
-      <c r="S224" s="42"/>
+      <c r="R224" s="34">
+        <v>200</v>
+      </c>
+      <c r="S224" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="T224" s="43"/>
       <c r="U224" s="43"/>
       <c r="V224" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W224" s="43"/>
       <c r="X224" s="43"/>
@@ -11666,9 +11700,11 @@
       <c r="B225" s="27"/>
       <c r="C225" s="27"/>
       <c r="D225" s="27"/>
-      <c r="E225" s="34"/>
+      <c r="E225" s="34">
+        <v>25</v>
+      </c>
       <c r="F225" s="35" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="G225" s="36"/>
       <c r="H225" s="36"/>
@@ -11677,7 +11713,7 @@
       <c r="K225" s="36"/>
       <c r="L225" s="37"/>
       <c r="M225" s="34" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="N225" s="38"/>
       <c r="O225" s="39"/>
@@ -11687,8 +11723,8 @@
       <c r="S225" s="42"/>
       <c r="T225" s="43"/>
       <c r="U225" s="43"/>
-      <c r="V225" s="108" t="s">
-        <v>328</v>
+      <c r="V225" s="42" t="s">
+        <v>340</v>
       </c>
       <c r="W225" s="43"/>
       <c r="X225" s="43"/>
@@ -11703,136 +11739,138 @@
       <c r="B226" s="27"/>
       <c r="C226" s="27"/>
       <c r="D226" s="27"/>
-      <c r="E226" s="28" t="s">
-        <v>229</v>
-      </c>
+      <c r="E226" s="34"/>
+      <c r="F226" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="G226" s="36"/>
+      <c r="H226" s="36"/>
+      <c r="I226" s="36"/>
+      <c r="J226" s="36"/>
+      <c r="K226" s="36"/>
+      <c r="L226" s="37"/>
+      <c r="M226" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="N226" s="38"/>
+      <c r="O226" s="39"/>
+      <c r="P226" s="40"/>
+      <c r="Q226" s="41"/>
+      <c r="R226" s="34"/>
+      <c r="S226" s="42"/>
+      <c r="T226" s="43"/>
+      <c r="U226" s="43"/>
+      <c r="V226" s="108" t="s">
+        <v>328</v>
+      </c>
+      <c r="W226" s="43"/>
+      <c r="X226" s="43"/>
+      <c r="Y226" s="43"/>
+      <c r="Z226" s="43"/>
+      <c r="AA226" s="43"/>
+      <c r="AB226" s="43"/>
+      <c r="AC226" s="44"/>
     </row>
     <row r="227" spans="1:29">
       <c r="A227" s="27"/>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
       <c r="D227" s="27"/>
+      <c r="E227" s="28" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="228" spans="1:29">
       <c r="A228" s="27"/>
       <c r="B228" s="27"/>
-      <c r="C228" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="C228" s="27"/>
       <c r="D228" s="27"/>
     </row>
     <row r="229" spans="1:29">
       <c r="A229" s="27"/>
       <c r="B229" s="27"/>
-      <c r="C229" s="27"/>
+      <c r="C229" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="D229" s="27"/>
-      <c r="E229" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F229" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G229" s="32"/>
-      <c r="H229" s="32"/>
-      <c r="I229" s="32"/>
-      <c r="J229" s="32"/>
-      <c r="K229" s="32"/>
-      <c r="L229" s="32"/>
-      <c r="M229" s="33"/>
-      <c r="N229" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O229" s="32"/>
-      <c r="P229" s="33"/>
-      <c r="Q229" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R229" s="32"/>
-      <c r="S229" s="32"/>
-      <c r="T229" s="32"/>
-      <c r="U229" s="32"/>
-      <c r="V229" s="32"/>
-      <c r="W229" s="32"/>
-      <c r="X229" s="32"/>
-      <c r="Y229" s="32"/>
-      <c r="Z229" s="32"/>
-      <c r="AA229" s="32"/>
-      <c r="AB229" s="32"/>
-      <c r="AC229" s="33"/>
-    </row>
-    <row r="230" spans="1:29" ht="13.5" customHeight="1">
+    </row>
+    <row r="230" spans="1:29">
       <c r="A230" s="27"/>
       <c r="B230" s="27"/>
       <c r="C230" s="27"/>
       <c r="D230" s="27"/>
-      <c r="E230" s="54">
-        <v>1</v>
-      </c>
-      <c r="F230" s="75"/>
-      <c r="G230" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H230" s="46"/>
-      <c r="I230" s="46"/>
-      <c r="J230" s="46"/>
-      <c r="K230" s="46"/>
-      <c r="L230" s="46"/>
-      <c r="M230" s="47"/>
-      <c r="N230" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="O230" s="49"/>
-      <c r="P230" s="50"/>
-      <c r="Q230" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="R230" s="51"/>
-      <c r="S230" s="51"/>
-      <c r="T230" s="51"/>
-      <c r="U230" s="51"/>
-      <c r="V230" s="51"/>
-      <c r="W230" s="51"/>
-      <c r="X230" s="51"/>
-      <c r="Y230" s="51"/>
-      <c r="Z230" s="51"/>
-      <c r="AA230" s="51"/>
-      <c r="AB230" s="51"/>
-      <c r="AC230" s="50"/>
+      <c r="E230" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G230" s="32"/>
+      <c r="H230" s="32"/>
+      <c r="I230" s="32"/>
+      <c r="J230" s="32"/>
+      <c r="K230" s="32"/>
+      <c r="L230" s="32"/>
+      <c r="M230" s="33"/>
+      <c r="N230" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O230" s="32"/>
+      <c r="P230" s="33"/>
+      <c r="Q230" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R230" s="32"/>
+      <c r="S230" s="32"/>
+      <c r="T230" s="32"/>
+      <c r="U230" s="32"/>
+      <c r="V230" s="32"/>
+      <c r="W230" s="32"/>
+      <c r="X230" s="32"/>
+      <c r="Y230" s="32"/>
+      <c r="Z230" s="32"/>
+      <c r="AA230" s="32"/>
+      <c r="AB230" s="32"/>
+      <c r="AC230" s="33"/>
     </row>
     <row r="231" spans="1:29" ht="13.5" customHeight="1">
       <c r="A231" s="27"/>
       <c r="B231" s="27"/>
       <c r="C231" s="27"/>
       <c r="D231" s="27"/>
-      <c r="E231" s="76"/>
-      <c r="F231" s="77"/>
-      <c r="G231" s="78"/>
-      <c r="H231" s="79"/>
-      <c r="I231" s="79"/>
-      <c r="J231" s="79"/>
-      <c r="K231" s="79"/>
-      <c r="L231" s="79"/>
-      <c r="M231" s="80"/>
-      <c r="N231" s="81"/>
-      <c r="O231" s="82"/>
-      <c r="P231" s="83"/>
-      <c r="Q231" s="119" t="s">
-        <v>352</v>
-      </c>
-      <c r="R231" s="85"/>
-      <c r="S231" s="85" t="s">
-        <v>349</v>
-      </c>
-      <c r="T231" s="85"/>
-      <c r="U231" s="85"/>
-      <c r="V231" s="85"/>
-      <c r="W231" s="85"/>
-      <c r="X231" s="85"/>
-      <c r="Y231" s="85"/>
-      <c r="Z231" s="85"/>
-      <c r="AA231" s="85"/>
-      <c r="AB231" s="85"/>
-      <c r="AC231" s="83"/>
+      <c r="E231" s="54">
+        <v>1</v>
+      </c>
+      <c r="F231" s="75"/>
+      <c r="G231" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H231" s="46"/>
+      <c r="I231" s="46"/>
+      <c r="J231" s="46"/>
+      <c r="K231" s="46"/>
+      <c r="L231" s="46"/>
+      <c r="M231" s="47"/>
+      <c r="N231" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="O231" s="49"/>
+      <c r="P231" s="50"/>
+      <c r="Q231" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="R231" s="51"/>
+      <c r="S231" s="51"/>
+      <c r="T231" s="51"/>
+      <c r="U231" s="51"/>
+      <c r="V231" s="51"/>
+      <c r="W231" s="51"/>
+      <c r="X231" s="51"/>
+      <c r="Y231" s="51"/>
+      <c r="Z231" s="51"/>
+      <c r="AA231" s="51"/>
+      <c r="AB231" s="51"/>
+      <c r="AC231" s="50"/>
     </row>
     <row r="232" spans="1:29" ht="13.5" customHeight="1">
       <c r="A232" s="27"/>
@@ -11852,12 +11890,12 @@
       <c r="O232" s="82"/>
       <c r="P232" s="83"/>
       <c r="Q232" s="119" t="s">
-        <v>358</v>
-      </c>
-      <c r="R232" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="S232" s="85"/>
+        <v>352</v>
+      </c>
+      <c r="R232" s="85"/>
+      <c r="S232" s="85" t="s">
+        <v>349</v>
+      </c>
       <c r="T232" s="85"/>
       <c r="U232" s="85"/>
       <c r="V232" s="85"/>
@@ -11960,7 +11998,7 @@
         <v>358</v>
       </c>
       <c r="R235" s="85" t="s">
-        <v>65</v>
+        <v>362</v>
       </c>
       <c r="S235" s="85"/>
       <c r="T235" s="85"/>
@@ -11995,9 +12033,8 @@
         <v>358</v>
       </c>
       <c r="R236" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="S236" s="85"/>
+        <v>363</v>
+      </c>
       <c r="T236" s="85"/>
       <c r="U236" s="85"/>
       <c r="V236" s="85"/>
@@ -12029,10 +12066,10 @@
       <c r="Q237" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R237" s="85"/>
-      <c r="S237" s="85" t="s">
-        <v>230</v>
-      </c>
+      <c r="R237" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="S237" s="85"/>
       <c r="T237" s="85"/>
       <c r="U237" s="85"/>
       <c r="V237" s="85"/>
@@ -12049,8 +12086,8 @@
       <c r="B238" s="27"/>
       <c r="C238" s="27"/>
       <c r="D238" s="27"/>
-      <c r="E238" s="64"/>
-      <c r="F238" s="86"/>
+      <c r="E238" s="76"/>
+      <c r="F238" s="77"/>
       <c r="G238" s="78"/>
       <c r="H238" s="79"/>
       <c r="I238" s="79"/>
@@ -12061,8 +12098,12 @@
       <c r="N238" s="81"/>
       <c r="O238" s="82"/>
       <c r="P238" s="83"/>
-      <c r="Q238" s="84"/>
-      <c r="R238" s="85"/>
+      <c r="Q238" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="R238" s="85" t="s">
+        <v>66</v>
+      </c>
       <c r="S238" s="85"/>
       <c r="T238" s="85"/>
       <c r="U238" s="85"/>
@@ -12073,56 +12114,50 @@
       <c r="Z238" s="85"/>
       <c r="AA238" s="85"/>
       <c r="AB238" s="85"/>
-      <c r="AC238" s="87"/>
+      <c r="AC238" s="83"/>
     </row>
     <row r="239" spans="1:29" ht="13.5" customHeight="1">
       <c r="A239" s="27"/>
       <c r="B239" s="27"/>
       <c r="C239" s="27"/>
       <c r="D239" s="27"/>
-      <c r="E239" s="89">
-        <v>2</v>
-      </c>
-      <c r="F239" s="90">
-        <v>25</v>
-      </c>
-      <c r="G239" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="H239" s="92"/>
-      <c r="I239" s="92"/>
-      <c r="J239" s="92"/>
-      <c r="K239" s="92"/>
-      <c r="L239" s="92"/>
-      <c r="M239" s="93"/>
-      <c r="N239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O239" s="49"/>
-      <c r="P239" s="50"/>
-      <c r="Q239" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="R239" s="96"/>
-      <c r="S239" s="96"/>
-      <c r="T239" s="96"/>
-      <c r="U239" s="96"/>
-      <c r="V239" s="96"/>
-      <c r="W239" s="96"/>
-      <c r="X239" s="96"/>
-      <c r="Y239" s="96"/>
-      <c r="Z239" s="96"/>
-      <c r="AA239" s="96"/>
-      <c r="AB239" s="96"/>
-      <c r="AC239" s="95"/>
+      <c r="E239" s="76"/>
+      <c r="F239" s="77"/>
+      <c r="G239" s="78"/>
+      <c r="H239" s="79"/>
+      <c r="I239" s="79"/>
+      <c r="J239" s="79"/>
+      <c r="K239" s="79"/>
+      <c r="L239" s="79"/>
+      <c r="M239" s="80"/>
+      <c r="N239" s="81"/>
+      <c r="O239" s="82"/>
+      <c r="P239" s="83"/>
+      <c r="Q239" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="R239" s="85"/>
+      <c r="S239" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="T239" s="85"/>
+      <c r="U239" s="85"/>
+      <c r="V239" s="85"/>
+      <c r="W239" s="85"/>
+      <c r="X239" s="85"/>
+      <c r="Y239" s="85"/>
+      <c r="Z239" s="85"/>
+      <c r="AA239" s="85"/>
+      <c r="AB239" s="85"/>
+      <c r="AC239" s="83"/>
     </row>
     <row r="240" spans="1:29" ht="13.5" customHeight="1">
       <c r="A240" s="27"/>
       <c r="B240" s="27"/>
       <c r="C240" s="27"/>
       <c r="D240" s="27"/>
-      <c r="E240" s="76"/>
-      <c r="F240" s="77"/>
+      <c r="E240" s="64"/>
+      <c r="F240" s="86"/>
       <c r="G240" s="78"/>
       <c r="H240" s="79"/>
       <c r="I240" s="79"/>
@@ -12133,13 +12168,9 @@
       <c r="N240" s="81"/>
       <c r="O240" s="82"/>
       <c r="P240" s="83"/>
-      <c r="Q240" s="119" t="s">
-        <v>352</v>
-      </c>
+      <c r="Q240" s="84"/>
       <c r="R240" s="85"/>
-      <c r="S240" s="85" t="s">
-        <v>351</v>
-      </c>
+      <c r="S240" s="85"/>
       <c r="T240" s="85"/>
       <c r="U240" s="85"/>
       <c r="V240" s="85"/>
@@ -12149,77 +12180,83 @@
       <c r="Z240" s="85"/>
       <c r="AA240" s="85"/>
       <c r="AB240" s="85"/>
-      <c r="AC240" s="83"/>
+      <c r="AC240" s="87"/>
     </row>
     <row r="241" spans="1:29" ht="13.5" customHeight="1">
       <c r="A241" s="27"/>
       <c r="B241" s="27"/>
       <c r="C241" s="27"/>
       <c r="D241" s="27"/>
-      <c r="E241" s="109"/>
-      <c r="F241" s="110"/>
-      <c r="G241" s="111"/>
-      <c r="H241" s="112"/>
-      <c r="I241" s="112"/>
-      <c r="J241" s="112"/>
-      <c r="K241" s="112"/>
-      <c r="L241" s="112"/>
-      <c r="M241" s="113"/>
-      <c r="N241" s="84"/>
-      <c r="O241" s="114"/>
-      <c r="P241" s="115"/>
-      <c r="Q241" s="119" t="s">
-        <v>358</v>
-      </c>
-      <c r="R241" s="116" t="s">
-        <v>271</v>
-      </c>
-      <c r="S241" s="116"/>
-      <c r="T241" s="116"/>
-      <c r="U241" s="116"/>
-      <c r="V241" s="116"/>
-      <c r="W241" s="116"/>
-      <c r="X241" s="116"/>
-      <c r="Y241" s="116"/>
-      <c r="Z241" s="116"/>
-      <c r="AA241" s="116"/>
-      <c r="AB241" s="116"/>
-      <c r="AC241" s="115"/>
+      <c r="E241" s="89">
+        <v>2</v>
+      </c>
+      <c r="F241" s="90">
+        <v>25</v>
+      </c>
+      <c r="G241" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="H241" s="92"/>
+      <c r="I241" s="92"/>
+      <c r="J241" s="92"/>
+      <c r="K241" s="92"/>
+      <c r="L241" s="92"/>
+      <c r="M241" s="93"/>
+      <c r="N241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O241" s="49"/>
+      <c r="P241" s="50"/>
+      <c r="Q241" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="R241" s="96"/>
+      <c r="S241" s="96"/>
+      <c r="T241" s="96"/>
+      <c r="U241" s="96"/>
+      <c r="V241" s="96"/>
+      <c r="W241" s="96"/>
+      <c r="X241" s="96"/>
+      <c r="Y241" s="96"/>
+      <c r="Z241" s="96"/>
+      <c r="AA241" s="96"/>
+      <c r="AB241" s="96"/>
+      <c r="AC241" s="95"/>
     </row>
     <row r="242" spans="1:29" ht="13.5" customHeight="1">
       <c r="A242" s="27"/>
       <c r="B242" s="27"/>
       <c r="C242" s="27"/>
       <c r="D242" s="27"/>
-      <c r="E242" s="109"/>
-      <c r="F242" s="110"/>
-      <c r="G242" s="111"/>
-      <c r="H242" s="112"/>
-      <c r="I242" s="112"/>
-      <c r="J242" s="112"/>
-      <c r="K242" s="112"/>
-      <c r="L242" s="112"/>
-      <c r="M242" s="113"/>
-      <c r="N242" s="84"/>
-      <c r="O242" s="114"/>
-      <c r="P242" s="115"/>
+      <c r="E242" s="76"/>
+      <c r="F242" s="77"/>
+      <c r="G242" s="78"/>
+      <c r="H242" s="79"/>
+      <c r="I242" s="79"/>
+      <c r="J242" s="79"/>
+      <c r="K242" s="79"/>
+      <c r="L242" s="79"/>
+      <c r="M242" s="80"/>
+      <c r="N242" s="81"/>
+      <c r="O242" s="82"/>
+      <c r="P242" s="83"/>
       <c r="Q242" s="119" t="s">
-        <v>358</v>
-      </c>
-      <c r="R242" s="116"/>
-      <c r="S242" s="116" t="s">
-        <v>268</v>
-      </c>
-      <c r="T242" s="116"/>
-      <c r="U242" s="116"/>
-      <c r="V242" s="116"/>
-      <c r="W242" s="116"/>
-      <c r="X242" s="116"/>
-      <c r="Y242" s="116"/>
-      <c r="Z242" s="116"/>
-      <c r="AA242" s="116"/>
-      <c r="AB242" s="116"/>
-      <c r="AC242" s="115"/>
+        <v>352</v>
+      </c>
+      <c r="R242" s="85"/>
+      <c r="S242" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="T242" s="85"/>
+      <c r="U242" s="85"/>
+      <c r="V242" s="85"/>
+      <c r="W242" s="85"/>
+      <c r="X242" s="85"/>
+      <c r="Y242" s="85"/>
+      <c r="Z242" s="85"/>
+      <c r="AA242" s="85"/>
+      <c r="AB242" s="85"/>
+      <c r="AC242" s="83"/>
     </row>
     <row r="243" spans="1:29" ht="13.5" customHeight="1">
       <c r="A243" s="27"/>
@@ -12241,11 +12278,11 @@
       <c r="Q243" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R243" s="116"/>
+      <c r="R243" s="116" t="s">
+        <v>271</v>
+      </c>
       <c r="S243" s="116"/>
-      <c r="T243" s="116" t="s">
-        <v>269</v>
-      </c>
+      <c r="T243" s="116"/>
       <c r="U243" s="116"/>
       <c r="V243" s="116"/>
       <c r="W243" s="116"/>
@@ -12276,10 +12313,10 @@
       <c r="Q244" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R244" s="116"/>
-      <c r="S244" s="116" t="s">
-        <v>267</v>
-      </c>
+      <c r="R244" s="116" t="s">
+        <v>364</v>
+      </c>
+      <c r="S244" s="116"/>
       <c r="T244" s="116"/>
       <c r="U244" s="116"/>
       <c r="V244" s="116"/>
@@ -12313,7 +12350,7 @@
       </c>
       <c r="R245" s="116"/>
       <c r="S245" s="116" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="T245" s="116"/>
       <c r="U245" s="116"/>
@@ -12347,10 +12384,10 @@
         <v>358</v>
       </c>
       <c r="R246" s="116"/>
-      <c r="S246" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="T246" s="116"/>
+      <c r="S246" s="116"/>
+      <c r="T246" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="U246" s="116"/>
       <c r="V246" s="116"/>
       <c r="W246" s="116"/>
@@ -12378,18 +12415,18 @@
       <c r="N247" s="84"/>
       <c r="O247" s="114"/>
       <c r="P247" s="115"/>
-      <c r="Q247" s="84"/>
-      <c r="R247" s="116" t="s">
-        <v>265</v>
-      </c>
-      <c r="S247" s="116"/>
+      <c r="Q247" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="R247" s="116"/>
+      <c r="S247" s="116" t="s">
+        <v>267</v>
+      </c>
       <c r="T247" s="116"/>
       <c r="U247" s="116"/>
       <c r="V247" s="116"/>
       <c r="W247" s="116"/>
-      <c r="X247" s="116" t="s">
-        <v>274</v>
-      </c>
+      <c r="X247" s="116"/>
       <c r="Y247" s="116"/>
       <c r="Z247" s="116"/>
       <c r="AA247" s="116"/>
@@ -12413,10 +12450,12 @@
       <c r="N248" s="84"/>
       <c r="O248" s="114"/>
       <c r="P248" s="115"/>
-      <c r="Q248" s="84"/>
+      <c r="Q248" s="119" t="s">
+        <v>358</v>
+      </c>
       <c r="R248" s="116"/>
       <c r="S248" s="116" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="T248" s="116"/>
       <c r="U248" s="116"/>
@@ -12446,12 +12485,14 @@
       <c r="N249" s="84"/>
       <c r="O249" s="114"/>
       <c r="P249" s="115"/>
-      <c r="Q249" s="84"/>
+      <c r="Q249" s="119" t="s">
+        <v>358</v>
+      </c>
       <c r="R249" s="116"/>
-      <c r="S249" s="116"/>
-      <c r="T249" s="116" t="s">
-        <v>266</v>
-      </c>
+      <c r="S249" s="116" t="s">
+        <v>273</v>
+      </c>
+      <c r="T249" s="116"/>
       <c r="U249" s="116"/>
       <c r="V249" s="116"/>
       <c r="W249" s="116"/>
@@ -12480,15 +12521,17 @@
       <c r="O250" s="114"/>
       <c r="P250" s="115"/>
       <c r="Q250" s="84"/>
-      <c r="R250" s="116"/>
-      <c r="S250" s="116" t="s">
-        <v>267</v>
-      </c>
+      <c r="R250" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="S250" s="116"/>
       <c r="T250" s="116"/>
       <c r="U250" s="116"/>
       <c r="V250" s="116"/>
       <c r="W250" s="116"/>
-      <c r="X250" s="116"/>
+      <c r="X250" s="116" t="s">
+        <v>274</v>
+      </c>
       <c r="Y250" s="116"/>
       <c r="Z250" s="116"/>
       <c r="AA250" s="116"/>
@@ -12500,70 +12543,66 @@
       <c r="B251" s="27"/>
       <c r="C251" s="27"/>
       <c r="D251" s="27"/>
-      <c r="E251" s="76"/>
-      <c r="F251" s="77"/>
-      <c r="G251" s="78"/>
-      <c r="H251" s="79"/>
-      <c r="I251" s="79"/>
-      <c r="J251" s="79"/>
-      <c r="K251" s="79"/>
-      <c r="L251" s="79"/>
-      <c r="M251" s="80"/>
-      <c r="N251" s="81"/>
-      <c r="O251" s="82"/>
-      <c r="P251" s="83"/>
-      <c r="Q251" s="119" t="s">
-        <v>352</v>
-      </c>
-      <c r="R251" s="85"/>
-      <c r="S251" s="85" t="s">
-        <v>359</v>
-      </c>
-      <c r="T251" s="85"/>
-      <c r="U251" s="85"/>
-      <c r="V251" s="85"/>
-      <c r="W251" s="85"/>
-      <c r="X251" s="85"/>
-      <c r="Y251" s="85"/>
-      <c r="Z251" s="85"/>
-      <c r="AA251" s="85"/>
-      <c r="AB251" s="85"/>
-      <c r="AC251" s="83"/>
+      <c r="E251" s="109"/>
+      <c r="F251" s="110"/>
+      <c r="G251" s="111"/>
+      <c r="H251" s="112"/>
+      <c r="I251" s="112"/>
+      <c r="J251" s="112"/>
+      <c r="K251" s="112"/>
+      <c r="L251" s="112"/>
+      <c r="M251" s="113"/>
+      <c r="N251" s="84"/>
+      <c r="O251" s="114"/>
+      <c r="P251" s="115"/>
+      <c r="Q251" s="84"/>
+      <c r="R251" s="116"/>
+      <c r="S251" s="116" t="s">
+        <v>361</v>
+      </c>
+      <c r="T251" s="116"/>
+      <c r="U251" s="116"/>
+      <c r="V251" s="116"/>
+      <c r="W251" s="116"/>
+      <c r="X251" s="116"/>
+      <c r="Y251" s="116"/>
+      <c r="Z251" s="116"/>
+      <c r="AA251" s="116"/>
+      <c r="AB251" s="116"/>
+      <c r="AC251" s="115"/>
     </row>
     <row r="252" spans="1:29" ht="13.5" customHeight="1">
       <c r="A252" s="27"/>
       <c r="B252" s="27"/>
       <c r="C252" s="27"/>
       <c r="D252" s="27"/>
-      <c r="E252" s="76"/>
-      <c r="F252" s="77"/>
-      <c r="G252" s="78"/>
-      <c r="H252" s="79"/>
-      <c r="I252" s="79"/>
-      <c r="J252" s="79"/>
-      <c r="K252" s="79"/>
-      <c r="L252" s="79"/>
-      <c r="M252" s="80"/>
-      <c r="N252" s="81"/>
-      <c r="O252" s="82"/>
-      <c r="P252" s="83"/>
-      <c r="Q252" s="119" t="s">
-        <v>358</v>
-      </c>
-      <c r="R252" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="S252" s="85"/>
-      <c r="T252" s="85"/>
-      <c r="U252" s="85"/>
-      <c r="V252" s="85"/>
-      <c r="W252" s="85"/>
-      <c r="X252" s="85"/>
-      <c r="Y252" s="85"/>
-      <c r="Z252" s="85"/>
-      <c r="AA252" s="85"/>
-      <c r="AB252" s="85"/>
-      <c r="AC252" s="83"/>
+      <c r="E252" s="109"/>
+      <c r="F252" s="110"/>
+      <c r="G252" s="111"/>
+      <c r="H252" s="112"/>
+      <c r="I252" s="112"/>
+      <c r="J252" s="112"/>
+      <c r="K252" s="112"/>
+      <c r="L252" s="112"/>
+      <c r="M252" s="113"/>
+      <c r="N252" s="84"/>
+      <c r="O252" s="114"/>
+      <c r="P252" s="115"/>
+      <c r="Q252" s="84"/>
+      <c r="R252" s="116"/>
+      <c r="S252" s="116"/>
+      <c r="T252" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="U252" s="116"/>
+      <c r="V252" s="116"/>
+      <c r="W252" s="116"/>
+      <c r="X252" s="116"/>
+      <c r="Y252" s="116"/>
+      <c r="Z252" s="116"/>
+      <c r="AA252" s="116"/>
+      <c r="AB252" s="116"/>
+      <c r="AC252" s="115"/>
     </row>
     <row r="253" spans="1:29" ht="13.5" customHeight="1">
       <c r="A253" s="27"/>
@@ -12582,13 +12621,11 @@
       <c r="N253" s="84"/>
       <c r="O253" s="114"/>
       <c r="P253" s="115"/>
-      <c r="Q253" s="119" t="s">
-        <v>358</v>
-      </c>
-      <c r="R253" s="116" t="s">
-        <v>270</v>
-      </c>
-      <c r="S253" s="116"/>
+      <c r="Q253" s="84"/>
+      <c r="R253" s="116"/>
+      <c r="S253" s="116" t="s">
+        <v>267</v>
+      </c>
       <c r="T253" s="116"/>
       <c r="U253" s="116"/>
       <c r="V253" s="116"/>
@@ -12605,70 +12642,70 @@
       <c r="B254" s="27"/>
       <c r="C254" s="27"/>
       <c r="D254" s="27"/>
-      <c r="E254" s="109"/>
-      <c r="F254" s="110"/>
-      <c r="G254" s="111"/>
-      <c r="H254" s="112"/>
-      <c r="I254" s="112"/>
-      <c r="J254" s="112"/>
-      <c r="K254" s="112"/>
-      <c r="L254" s="112"/>
-      <c r="M254" s="113"/>
-      <c r="N254" s="84"/>
-      <c r="O254" s="114"/>
-      <c r="P254" s="115"/>
+      <c r="E254" s="76"/>
+      <c r="F254" s="77"/>
+      <c r="G254" s="78"/>
+      <c r="H254" s="79"/>
+      <c r="I254" s="79"/>
+      <c r="J254" s="79"/>
+      <c r="K254" s="79"/>
+      <c r="L254" s="79"/>
+      <c r="M254" s="80"/>
+      <c r="N254" s="81"/>
+      <c r="O254" s="82"/>
+      <c r="P254" s="83"/>
       <c r="Q254" s="119" t="s">
-        <v>358</v>
-      </c>
-      <c r="R254" s="116"/>
-      <c r="S254" s="116" t="s">
-        <v>276</v>
-      </c>
-      <c r="T254" s="116"/>
-      <c r="U254" s="116"/>
-      <c r="V254" s="116"/>
-      <c r="W254" s="116"/>
-      <c r="X254" s="116"/>
-      <c r="Y254" s="116"/>
-      <c r="Z254" s="116"/>
-      <c r="AA254" s="116"/>
-      <c r="AB254" s="116"/>
-      <c r="AC254" s="115"/>
+        <v>352</v>
+      </c>
+      <c r="R254" s="85"/>
+      <c r="S254" s="85" t="s">
+        <v>359</v>
+      </c>
+      <c r="T254" s="85"/>
+      <c r="U254" s="85"/>
+      <c r="V254" s="85"/>
+      <c r="W254" s="85"/>
+      <c r="X254" s="85"/>
+      <c r="Y254" s="85"/>
+      <c r="Z254" s="85"/>
+      <c r="AA254" s="85"/>
+      <c r="AB254" s="85"/>
+      <c r="AC254" s="83"/>
     </row>
     <row r="255" spans="1:29" ht="13.5" customHeight="1">
       <c r="A255" s="27"/>
       <c r="B255" s="27"/>
       <c r="C255" s="27"/>
       <c r="D255" s="27"/>
-      <c r="E255" s="109"/>
-      <c r="F255" s="110"/>
-      <c r="G255" s="111"/>
-      <c r="H255" s="112"/>
-      <c r="I255" s="112"/>
-      <c r="J255" s="112"/>
-      <c r="K255" s="112"/>
-      <c r="L255" s="112"/>
-      <c r="M255" s="113"/>
-      <c r="N255" s="84"/>
-      <c r="O255" s="114"/>
-      <c r="P255" s="115"/>
+      <c r="E255" s="76"/>
+      <c r="F255" s="77"/>
+      <c r="G255" s="78"/>
+      <c r="H255" s="79"/>
+      <c r="I255" s="79"/>
+      <c r="J255" s="79"/>
+      <c r="K255" s="79"/>
+      <c r="L255" s="79"/>
+      <c r="M255" s="80"/>
+      <c r="N255" s="81"/>
+      <c r="O255" s="82"/>
+      <c r="P255" s="83"/>
       <c r="Q255" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R255" s="116"/>
-      <c r="S255" s="116" t="s">
-        <v>268</v>
-      </c>
-      <c r="T255" s="116"/>
-      <c r="U255" s="116"/>
-      <c r="V255" s="116"/>
-      <c r="W255" s="116"/>
-      <c r="X255" s="116"/>
-      <c r="Y255" s="116"/>
-      <c r="Z255" s="116"/>
-      <c r="AA255" s="116"/>
-      <c r="AB255" s="116"/>
-      <c r="AC255" s="115"/>
+      <c r="R255" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="S255" s="85"/>
+      <c r="T255" s="85"/>
+      <c r="U255" s="85"/>
+      <c r="V255" s="85"/>
+      <c r="W255" s="85"/>
+      <c r="X255" s="85"/>
+      <c r="Y255" s="85"/>
+      <c r="Z255" s="85"/>
+      <c r="AA255" s="85"/>
+      <c r="AB255" s="85"/>
+      <c r="AC255" s="83"/>
     </row>
     <row r="256" spans="1:29" ht="13.5" customHeight="1">
       <c r="A256" s="27"/>
@@ -12690,11 +12727,11 @@
       <c r="Q256" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="R256" s="116"/>
+      <c r="R256" s="116" t="s">
+        <v>270</v>
+      </c>
       <c r="S256" s="116"/>
-      <c r="T256" s="116" t="s">
-        <v>269</v>
-      </c>
+      <c r="T256" s="116"/>
       <c r="U256" s="116"/>
       <c r="V256" s="116"/>
       <c r="W256" s="116"/>
@@ -12726,15 +12763,16 @@
         <v>358</v>
       </c>
       <c r="R257" s="116"/>
-      <c r="S257" s="116"/>
+      <c r="S257" s="116" t="s">
+        <v>276</v>
+      </c>
       <c r="T257" s="116"/>
       <c r="U257" s="116"/>
       <c r="V257" s="116"/>
       <c r="W257" s="116"/>
       <c r="X257" s="116"/>
-      <c r="Y257" s="116" t="s">
-        <v>275</v>
-      </c>
+      <c r="Y257" s="116"/>
+      <c r="Z257" s="116"/>
       <c r="AA257" s="116"/>
       <c r="AB257" s="116"/>
       <c r="AC257" s="115"/>
@@ -12761,7 +12799,7 @@
       </c>
       <c r="R258" s="116"/>
       <c r="S258" s="116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T258" s="116"/>
       <c r="U258" s="116"/>
@@ -12791,12 +12829,14 @@
       <c r="N259" s="84"/>
       <c r="O259" s="114"/>
       <c r="P259" s="115"/>
-      <c r="Q259" s="84"/>
-      <c r="R259" s="116" t="s">
-        <v>353</v>
-      </c>
+      <c r="Q259" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="R259" s="116"/>
       <c r="S259" s="116"/>
-      <c r="T259" s="116"/>
+      <c r="T259" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="U259" s="116"/>
       <c r="V259" s="116"/>
       <c r="W259" s="116"/>
@@ -12812,31 +12852,133 @@
       <c r="B260" s="27"/>
       <c r="C260" s="27"/>
       <c r="D260" s="27"/>
-      <c r="E260" s="97"/>
-      <c r="F260" s="98"/>
-      <c r="G260" s="99"/>
-      <c r="H260" s="100"/>
-      <c r="I260" s="100"/>
-      <c r="J260" s="100"/>
-      <c r="K260" s="100"/>
-      <c r="L260" s="100"/>
-      <c r="M260" s="101"/>
-      <c r="N260" s="102"/>
-      <c r="O260" s="103"/>
-      <c r="P260" s="104"/>
-      <c r="Q260" s="102"/>
-      <c r="R260" s="105"/>
-      <c r="S260" s="105"/>
-      <c r="T260" s="105"/>
-      <c r="U260" s="105"/>
-      <c r="V260" s="105"/>
-      <c r="W260" s="105"/>
-      <c r="X260" s="105"/>
-      <c r="Y260" s="105"/>
-      <c r="Z260" s="105"/>
-      <c r="AA260" s="105"/>
-      <c r="AB260" s="105"/>
-      <c r="AC260" s="104"/>
+      <c r="E260" s="109"/>
+      <c r="F260" s="110"/>
+      <c r="G260" s="111"/>
+      <c r="H260" s="112"/>
+      <c r="I260" s="112"/>
+      <c r="J260" s="112"/>
+      <c r="K260" s="112"/>
+      <c r="L260" s="112"/>
+      <c r="M260" s="113"/>
+      <c r="N260" s="84"/>
+      <c r="O260" s="114"/>
+      <c r="P260" s="115"/>
+      <c r="Q260" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="R260" s="116"/>
+      <c r="S260" s="116"/>
+      <c r="T260" s="116"/>
+      <c r="U260" s="116"/>
+      <c r="V260" s="116"/>
+      <c r="W260" s="116"/>
+      <c r="X260" s="116"/>
+      <c r="Y260" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA260" s="116"/>
+      <c r="AB260" s="116"/>
+      <c r="AC260" s="115"/>
+    </row>
+    <row r="261" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A261" s="27"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="27"/>
+      <c r="D261" s="27"/>
+      <c r="E261" s="109"/>
+      <c r="F261" s="110"/>
+      <c r="G261" s="111"/>
+      <c r="H261" s="112"/>
+      <c r="I261" s="112"/>
+      <c r="J261" s="112"/>
+      <c r="K261" s="112"/>
+      <c r="L261" s="112"/>
+      <c r="M261" s="113"/>
+      <c r="N261" s="84"/>
+      <c r="O261" s="114"/>
+      <c r="P261" s="115"/>
+      <c r="Q261" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="R261" s="116"/>
+      <c r="S261" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="T261" s="116"/>
+      <c r="U261" s="116"/>
+      <c r="V261" s="116"/>
+      <c r="W261" s="116"/>
+      <c r="X261" s="116"/>
+      <c r="Y261" s="116"/>
+      <c r="Z261" s="116"/>
+      <c r="AA261" s="116"/>
+      <c r="AB261" s="116"/>
+      <c r="AC261" s="115"/>
+    </row>
+    <row r="262" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A262" s="27"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="27"/>
+      <c r="D262" s="27"/>
+      <c r="E262" s="109"/>
+      <c r="F262" s="110"/>
+      <c r="G262" s="111"/>
+      <c r="H262" s="112"/>
+      <c r="I262" s="112"/>
+      <c r="J262" s="112"/>
+      <c r="K262" s="112"/>
+      <c r="L262" s="112"/>
+      <c r="M262" s="113"/>
+      <c r="N262" s="84"/>
+      <c r="O262" s="114"/>
+      <c r="P262" s="115"/>
+      <c r="Q262" s="84"/>
+      <c r="R262" s="116" t="s">
+        <v>353</v>
+      </c>
+      <c r="S262" s="116"/>
+      <c r="T262" s="116"/>
+      <c r="U262" s="116"/>
+      <c r="V262" s="116"/>
+      <c r="W262" s="116"/>
+      <c r="X262" s="116"/>
+      <c r="Y262" s="116"/>
+      <c r="Z262" s="116"/>
+      <c r="AA262" s="116"/>
+      <c r="AB262" s="116"/>
+      <c r="AC262" s="115"/>
+    </row>
+    <row r="263" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A263" s="27"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="27"/>
+      <c r="D263" s="27"/>
+      <c r="E263" s="97"/>
+      <c r="F263" s="98"/>
+      <c r="G263" s="99"/>
+      <c r="H263" s="100"/>
+      <c r="I263" s="100"/>
+      <c r="J263" s="100"/>
+      <c r="K263" s="100"/>
+      <c r="L263" s="100"/>
+      <c r="M263" s="101"/>
+      <c r="N263" s="102"/>
+      <c r="O263" s="103"/>
+      <c r="P263" s="104"/>
+      <c r="Q263" s="102"/>
+      <c r="R263" s="105"/>
+      <c r="S263" s="105"/>
+      <c r="T263" s="105"/>
+      <c r="U263" s="105"/>
+      <c r="V263" s="105"/>
+      <c r="W263" s="105"/>
+      <c r="X263" s="105"/>
+      <c r="Y263" s="105"/>
+      <c r="Z263" s="105"/>
+      <c r="AA263" s="105"/>
+      <c r="AB263" s="105"/>
+      <c r="AC263" s="104"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
@@ -12851,7 +12993,7 @@
   <dimension ref="A1:AJ232"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ53" sqref="AJ53"/>
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" customHeight="1"/>
